--- a/data/trans_camb/P1001-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.4053138307757463</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>5.283457003627537</v>
+        <v>5.283457003627539</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.6004556781596279</v>
@@ -664,7 +664,7 @@
         <v>0.06170385779243268</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.601685817809405</v>
+        <v>2.601685817809403</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.716698837892467</v>
+        <v>-2.54423173584225</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.485680737627568</v>
+        <v>-2.387747244921226</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.508333195472916</v>
+        <v>-2.35419260077784</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2667200379637368</v>
+        <v>-0.6073708339172325</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.735315601787931</v>
+        <v>-1.671687050302805</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.627196360157289</v>
+        <v>1.138178887892985</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.8777749286988833</v>
+        <v>-0.9333372922685548</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.519970506982344</v>
+        <v>-1.489014180369047</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2826675784267858</v>
+        <v>0.1390661808546824</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.214232829451229</v>
+        <v>1.371692816222182</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.849500409897759</v>
+        <v>1.888365921847688</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.014492740700444</v>
+        <v>4.449642920464434</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.346323804068049</v>
+        <v>4.649791964487457</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.831008826282391</v>
+        <v>2.885602201816035</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.56072035649164</v>
+        <v>10.08870539362416</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.250705084034932</v>
+        <v>2.255242153069059</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.60895125758137</v>
+        <v>1.772991960855362</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.960754457002757</v>
+        <v>5.52450500625394</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.02330579133385795</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.9826670317777074</v>
+        <v>0.9826670317777065</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7427376313667273</v>
+        <v>-0.7164277157993156</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6723696722364852</v>
+        <v>-0.6616180522415673</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8015534187988184</v>
+        <v>-0.761709393969577</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1326691056530502</v>
+        <v>-0.1879199334455743</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.495094918157426</v>
+        <v>-0.4806985652338789</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3583202355068738</v>
+        <v>0.2886436882520982</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2851025405441194</v>
+        <v>-0.3099034421865108</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4553294554530428</v>
+        <v>-0.4386320029858969</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.04904054926340479</v>
+        <v>-0.002178723682192974</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.00751473823582</v>
+        <v>1.039508129005982</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.416689617964783</v>
+        <v>1.242592286408338</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.431417201339343</v>
+        <v>3.063223968137957</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.459791772475156</v>
+        <v>2.799047705289317</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.566991713505291</v>
+        <v>1.830675918172517</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.835149533792557</v>
+        <v>5.163126572102097</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.200519122371911</v>
+        <v>1.14290622219633</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8600672570680057</v>
+        <v>0.9078395327019325</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.897358915992494</v>
+        <v>2.504542216427402</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.200697115087063</v>
+        <v>-2.247021995053685</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.014564004659043</v>
+        <v>-0.9363980358374652</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.773831440619545</v>
+        <v>-2.977569358068092</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.88481302602802</v>
+        <v>-4.728417200246728</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.35016117010483</v>
+        <v>-5.455673785676792</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.151932400175343</v>
+        <v>-3.823947098075863</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.547752507309584</v>
+        <v>-2.596199484358656</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.224201721831593</v>
+        <v>-2.20404187418556</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.504171141694975</v>
+        <v>-2.667959841343703</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.610104906860749</v>
+        <v>1.595438227290521</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.2991940180246</v>
+        <v>3.623911935885805</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.697837920547973</v>
+        <v>1.745453274247575</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9750058331825318</v>
+        <v>0.7624491283307344</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.01964333411053413</v>
+        <v>0.01102115483733079</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.174124325684915</v>
+        <v>2.308825991336799</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9734250847562986</v>
+        <v>0.7443748635231501</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.105707894651319</v>
+        <v>1.181449313978087</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.573190851157357</v>
+        <v>1.387577015242353</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5351504474899901</v>
+        <v>-0.5589772312693498</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2679950926850138</v>
+        <v>-0.2383747895940355</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7115792328779283</v>
+        <v>-0.7651189860900435</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5489887494756184</v>
+        <v>-0.5260636319417055</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6143074012394544</v>
+        <v>-0.6073329601846599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.498218403935688</v>
+        <v>-0.4579787101226059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4388696129209347</v>
+        <v>-0.4370525789630836</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3767097453703707</v>
+        <v>-0.3650833332226584</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4292842608357335</v>
+        <v>-0.4539658686025767</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7080249771572612</v>
+        <v>0.6491015484009066</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.373588777467606</v>
+        <v>1.419440649460409</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7707559125324114</v>
+        <v>0.7143285970022319</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1712523651778182</v>
+        <v>0.1322992031541688</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.00566746263205577</v>
+        <v>0.01569298223879728</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3617721718056033</v>
+        <v>0.4140198646749746</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2299622598459708</v>
+        <v>0.2141439737275465</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2723096901452456</v>
+        <v>0.2629281096369179</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3499582596832693</v>
+        <v>0.328905010071469</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.248989364161336</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1768340316157385</v>
+        <v>0.1768340316157371</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.119266240901883</v>
+        <v>-1.122010427054309</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.791600431211194</v>
+        <v>-1.764578223545285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.297810171225803</v>
+        <v>-1.323926844113813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.828933754437179</v>
+        <v>1.60454065066013</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.792997742473741</v>
+        <v>-2.496985883600997</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.09414377025517</v>
+        <v>-3.001697659255283</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.15527110672063</v>
+        <v>1.027207733546912</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.508931472458514</v>
+        <v>-1.715783975460199</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.508805875124927</v>
+        <v>-1.519536179296071</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.624128267854196</v>
+        <v>3.807702376769805</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.864567239814995</v>
+        <v>3.002747366599258</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.931962523396974</v>
+        <v>3.809419161864075</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.163114692496196</v>
+        <v>7.850070443879133</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.418400658733476</v>
+        <v>2.93805159131018</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.658576733455616</v>
+        <v>1.886030778309466</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.274544679965181</v>
+        <v>5.136141969866977</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.002919010542607</v>
+        <v>2.048566802869568</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.965031627990987</v>
+        <v>2.031228457674779</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.04532415083022547</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.03218953688188569</v>
+        <v>0.03218953688188544</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2220505964806519</v>
+        <v>-0.2378554694166179</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3485167242088096</v>
+        <v>-0.3627620550253031</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2821236908738061</v>
+        <v>-0.2523598091932556</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2132919386745743</v>
+        <v>0.1815061252895615</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3542910145521612</v>
+        <v>-0.3232849115692872</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3853768500164395</v>
+        <v>-0.3853455592747326</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1873989243524531</v>
+        <v>0.1505704226255845</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2456555338641939</v>
+        <v>-0.2530354444248671</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2428219056105924</v>
+        <v>-0.2422956317977604</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.21482934502817</v>
+        <v>1.201386097412219</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9534491456951761</v>
+        <v>0.9875153447186705</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.34716013068882</v>
+        <v>1.28988654389263</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.451341175976156</v>
+        <v>1.457812491322507</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4773454401854114</v>
+        <v>0.5401258820440978</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3196812809551572</v>
+        <v>0.3647908310062392</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.173930134861643</v>
+        <v>1.102536733824666</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4286893323094774</v>
+        <v>0.4564645254356868</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4145909340489756</v>
+        <v>0.4323858705576897</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6458690417634222</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2053900670749509</v>
+        <v>0.2053900670749495</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.239978940833794</v>
@@ -1297,7 +1297,7 @@
         <v>-0.853429916714285</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-2.315554418940202</v>
+        <v>-2.315554418940201</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.432065980484803</v>
@@ -1306,7 +1306,7 @@
         <v>-0.09117244866678476</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-1.015690810612509</v>
+        <v>-1.015690810612507</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.431704737426946</v>
+        <v>-2.521228446518457</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.684549459117386</v>
+        <v>-2.347560361558537</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.755751481856834</v>
+        <v>-2.563605874953889</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.921983979267228</v>
+        <v>-1.937790633972479</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.359485701903259</v>
+        <v>-4.491849336083202</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.563815952603882</v>
+        <v>-5.638861078535232</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.066990631264732</v>
+        <v>-0.9621712059926558</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.302163647511249</v>
+        <v>-2.42676138497087</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.214463341295967</v>
+        <v>-3.21205826352445</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.774698438336959</v>
+        <v>3.567442215933024</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.876197525697232</v>
+        <v>3.45792532706573</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.27910356481247</v>
+        <v>3.024351444811146</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.476156434726644</v>
+        <v>6.235219952880633</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.167385500436624</v>
+        <v>3.094031309728529</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7225552272477638</v>
+        <v>0.7772205168568033</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.03699626853248</v>
+        <v>4.253239912078133</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.324643777768487</v>
+        <v>2.56687880184564</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.264844297673976</v>
+        <v>1.204705299637076</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1034154826790302</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.0328867178182767</v>
+        <v>0.03288671781827648</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1989020745929603</v>
@@ -1402,7 +1402,7 @@
         <v>-0.07578150752211199</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2056129052662719</v>
+        <v>-0.2056129052662718</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1637572629592841</v>
@@ -1411,7 +1411,7 @@
         <v>-0.01042560248928903</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.116144611648755</v>
+        <v>-0.1161446116487548</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3042279702735561</v>
+        <v>-0.3380221683161204</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3268108824817382</v>
+        <v>-0.2979042246519837</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3590968782624335</v>
+        <v>-0.3376825769142492</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.140817896377321</v>
+        <v>-0.1427762569027705</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3347567997211796</v>
+        <v>-0.3394086853291064</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4155076466245891</v>
+        <v>-0.4199392398562602</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1097869160251225</v>
+        <v>-0.101139162038806</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2383794086812194</v>
+        <v>-0.2448759180966982</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3146854473223856</v>
+        <v>-0.3179902922085415</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8101069582391723</v>
+        <v>0.7380005278254853</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8157532743509821</v>
+        <v>0.7526978998759937</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7598931780737542</v>
+        <v>0.6787756799818601</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.739852786373381</v>
+        <v>0.6770535909806865</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3293346594170233</v>
+        <v>0.3585408726916831</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08152788353111168</v>
+        <v>0.09245457591907484</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5501606907370545</v>
+        <v>0.5920849465294142</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3094966034658448</v>
+        <v>0.3613327521785588</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1704496347968416</v>
+        <v>0.1675316260062518</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.484950723683227</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.159483174226419</v>
+        <v>-1.159483174226421</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>9.547329036410721</v>
@@ -1520,7 +1520,7 @@
         <v>2.722425078203176</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.6127262311652268</v>
+        <v>0.6127262311652254</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.524696512773279</v>
+        <v>-2.413264786657721</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.968190876606738</v>
+        <v>-5.067033835659085</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.622478381113006</v>
+        <v>-4.743160818422345</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.541351637652545</v>
+        <v>4.382144481683316</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.496373893794265</v>
+        <v>1.97513950164075</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.347986724202089</v>
+        <v>-1.505442735539502</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.293406708031248</v>
+        <v>2.3997828364557</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.5137909941115745</v>
+        <v>-0.1253019149483154</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.878658850520872</v>
+        <v>-1.93343965262742</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.368779629056049</v>
+        <v>5.368833648788364</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.203239794120148</v>
+        <v>2.216682752197302</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.060882465271423</v>
+        <v>2.025482605833569</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.92477997736392</v>
+        <v>14.64096041012856</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.86736833034305</v>
+        <v>11.56974184224774</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.057129747575495</v>
+        <v>6.16665090712675</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.548971883696332</v>
+        <v>8.738410191759257</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.390522409549418</v>
+        <v>5.745474959017291</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.946347079277317</v>
+        <v>3.296656814594111</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1783922874892902</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1392927404638366</v>
+        <v>-0.1392927404638368</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.8653497893523767</v>
@@ -1625,7 +1625,7 @@
         <v>0.2804285928979247</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.06311503527241957</v>
+        <v>0.06311503527241943</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2448579141869064</v>
+        <v>-0.230163000002969</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4842195694644265</v>
+        <v>-0.4928109633816783</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.437075926811962</v>
+        <v>-0.4510424141172088</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3270966359409596</v>
+        <v>0.3391352940384355</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1847774820191384</v>
+        <v>0.134651424712667</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.0963885348490249</v>
+        <v>-0.1116849384928885</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1925003664779606</v>
+        <v>0.2188226401574304</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.04137547901619215</v>
+        <v>-0.01474890565948474</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1661002345706112</v>
+        <v>-0.1723018022417884</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8451416616523374</v>
+        <v>0.879196553436727</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3765554176722169</v>
+        <v>0.3510764504394612</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3216520021140878</v>
+        <v>0.3323156765579335</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.689905553020506</v>
+        <v>1.625183396069662</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.349264554913703</v>
+        <v>1.358891632395953</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7533104417831866</v>
+        <v>0.7394518564443081</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.032508492243575</v>
+        <v>1.072194920803392</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6582444876969318</v>
+        <v>0.6732720558626342</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.358791745751172</v>
+        <v>0.4190607880430889</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-3.384620314768579</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-4.323724024726698</v>
+        <v>-4.323724024726697</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>8.837050956641072</v>
@@ -1734,7 +1734,7 @@
         <v>2.524814909683753</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-1.353797735871824</v>
+        <v>-1.353797735871826</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.139081352886786</v>
+        <v>-5.023971870490874</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.240586863881214</v>
+        <v>-8.07805437005608</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.572526246309801</v>
+        <v>-8.98053605086587</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.506057023016661</v>
+        <v>2.865703216753362</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.262891719963423</v>
+        <v>1.825146666695231</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.065899873467208</v>
+        <v>-3.028857945854142</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.797682526764646</v>
+        <v>0.9511939702537432</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.287202619728954</v>
+        <v>-1.24289767523444</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.563538696276749</v>
+        <v>-4.571060605034638</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.440164439696439</v>
+        <v>5.742360928986384</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.266075435030109</v>
+        <v>1.234658075802758</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.001224567500441128</v>
+        <v>-0.3855675978141634</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14.74727422014552</v>
+        <v>14.23896591517297</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>13.13776392474384</v>
+        <v>13.17880164130592</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.006647154559213</v>
+        <v>6.008653780328041</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.549382381300614</v>
+        <v>8.542514685426834</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.035669838937293</v>
+        <v>5.938531104487033</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.927158476113051</v>
+        <v>1.703594919985238</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.282350299793162</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.3606917943727912</v>
+        <v>-0.3606917943727911</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.6234755523620642</v>
@@ -1839,7 +1839,7 @@
         <v>0.1917503367771175</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1028159215892925</v>
+        <v>-0.1028159215892926</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3626555214998305</v>
+        <v>-0.3576644181935305</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5625093021400803</v>
+        <v>-0.5644364798529465</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5831829949501537</v>
+        <v>-0.5939619126826031</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2062080096842421</v>
+        <v>0.160103817648332</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1494326326523877</v>
+        <v>0.1098773428388631</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1832026868635148</v>
+        <v>-0.1800215543249911</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04915425491020572</v>
+        <v>0.05156644813046216</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.09139931389451401</v>
+        <v>-0.08616591595693548</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3055347204525778</v>
+        <v>-0.300020227619368</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.569886154658962</v>
+        <v>0.5915866041749431</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.159665368874435</v>
+        <v>0.127048548044693</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.01162909039850497</v>
+        <v>-0.01818490288274916</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.290384191727984</v>
+        <v>1.202392949105759</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.185100939926321</v>
+        <v>1.125600086807896</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5420094332284608</v>
+        <v>0.5458589768051185</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7576417085806473</v>
+        <v>0.7391764287780361</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5194522636871028</v>
+        <v>0.5189130272877873</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1796369046441834</v>
+        <v>0.1555513178701365</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.915443435715891</v>
+        <v>-1.408603908211067</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-10.4740738611703</v>
+        <v>-10.95845695174062</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-10.83006208283576</v>
+        <v>-10.89750330501805</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8.033820881326811</v>
+        <v>7.71180631839363</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.176824047817461</v>
+        <v>1.810810021217039</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.181230249488566</v>
+        <v>2.327738226798971</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>6.292177535862143</v>
+        <v>6.323897923587038</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.6764674264377154</v>
+        <v>-0.71442110915181</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.490181232919038</v>
+        <v>-1.366593266953404</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>12.64361727594937</v>
+        <v>13.45847163298178</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.522299251490011</v>
+        <v>1.722026536594086</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.232991274621987</v>
+        <v>0.3905080876700488</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>21.68228893635746</v>
+        <v>21.8909063732144</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>15.79218857829232</v>
+        <v>15.40381415870347</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>13.0933617153322</v>
+        <v>13.59295621512821</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>16.60904213295705</v>
+        <v>16.19835267814543</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>8.545907392855968</v>
+        <v>8.895215739033119</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.707696237404121</v>
+        <v>6.812064254190464</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1032015447225434</v>
+        <v>-0.08335083396510275</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5160329547534387</v>
+        <v>-0.5255351452558457</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.511476388703109</v>
+        <v>-0.5125722834891461</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.3566883602463825</v>
+        <v>0.3525366077499487</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.09292656490405714</v>
+        <v>0.08142479940044028</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.09770659689901154</v>
+        <v>0.09704571246381589</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3070616710914703</v>
+        <v>0.302296093212705</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.0315509253098946</v>
+        <v>-0.03922329928889766</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.07126390588153836</v>
+        <v>-0.06458571641751799</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9803673979908262</v>
+        <v>0.9802452051240313</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.215935189496382</v>
+        <v>0.1513467699740018</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1067668480217204</v>
+        <v>0.03706534513080744</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.419747920679803</v>
+        <v>1.414710971852302</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.005448387104356</v>
+        <v>1.009624355866846</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8563792825436275</v>
+        <v>0.8983937351119869</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.080479599644154</v>
+        <v>1.060054734021507</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5610395065743915</v>
+        <v>0.5809861934879502</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4337598041507989</v>
+        <v>0.4471125020851536</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>0.01794053191997089</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.01581445781020999</v>
+        <v>-0.01581445781021068</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>5.224171082039894</v>
@@ -2153,7 +2153,7 @@
         <v>2.776391386054115</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>2.31537855631193</v>
+        <v>2.315378556311928</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.174920955467776</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.1000918546216931</v>
+        <v>-0.1750323377329534</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.108722569422364</v>
+        <v>-1.291238493890622</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.20366311357387</v>
+        <v>-1.193163467349736</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.762999143686437</v>
+        <v>3.700529820749987</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.399886616201855</v>
+        <v>1.126699206997395</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.068708432374665</v>
+        <v>1.025821303132139</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.171556381864145</v>
+        <v>2.085845876718535</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.4222370339998683</v>
+        <v>0.5366472617229238</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.1368240676145373</v>
+        <v>0.2085334812569104</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.359452178613634</v>
+        <v>2.248271500678385</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.203758422432223</v>
+        <v>1.117218860154628</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.204885497251654</v>
+        <v>1.138081041298256</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.870306275374915</v>
+        <v>6.788799855793082</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.294826561744773</v>
+        <v>4.29346756767308</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.660120558127172</v>
+        <v>3.612999999340269</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.151223744304733</v>
+        <v>4.246110396112194</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.423751283840835</v>
+        <v>2.483843872050832</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.032570091749785</v>
+        <v>2.045678631136394</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.002965263220053842</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.002613859516478874</v>
+        <v>-0.002613859516478989</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.5546619476703221</v>
@@ -2258,7 +2258,7 @@
         <v>0.2947756935024742</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2458289285458485</v>
+        <v>0.2458289285458484</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.4091170817075764</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.0169579547462476</v>
+        <v>-0.02862911238086396</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1695863356988712</v>
+        <v>-0.193374122053747</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1825893399443828</v>
+        <v>-0.1840951128077041</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.3675160996456364</v>
+        <v>0.3682735578569831</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1341282220250279</v>
+        <v>0.1145193273469498</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1073007423430231</v>
+        <v>0.09829735403809312</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2617330139186293</v>
+        <v>0.2471710754177429</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.0525066576733896</v>
+        <v>0.06372423789242779</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.01635023893075849</v>
+        <v>0.02218578891993569</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4193610306790301</v>
+        <v>0.4103556061538978</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.221868347763965</v>
+        <v>0.2066382262083314</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2211347943340626</v>
+        <v>0.2046113829279221</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7788814124400838</v>
+        <v>0.7796765773147217</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4930824225010416</v>
+        <v>0.4838857768573703</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4213782850214596</v>
+        <v>0.4128544753524315</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5650359739547622</v>
+        <v>0.5844490030023083</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3333288937446443</v>
+        <v>0.3425275717952183</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.27532287260958</v>
+        <v>0.2775085178432452</v>
       </c>
     </row>
     <row r="52">
